--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cd86-Ctla4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cd86-Ctla4.xlsx
@@ -537,46 +537,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.295844</v>
+        <v>0.101371</v>
       </c>
       <c r="H2">
-        <v>0.887532</v>
+        <v>0.304113</v>
       </c>
       <c r="I2">
-        <v>0.001426310468785249</v>
+        <v>0.0004873780190420389</v>
       </c>
       <c r="J2">
-        <v>0.001426654776365869</v>
+        <v>0.0004888126654476159</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.3714593333333334</v>
+        <v>0.343285</v>
       </c>
       <c r="N2">
-        <v>1.114378</v>
+        <v>1.029855</v>
       </c>
       <c r="O2">
-        <v>0.6512412632366348</v>
+        <v>0.9867450936054706</v>
       </c>
       <c r="P2">
-        <v>0.6512412632366349</v>
+        <v>0.9867450936054707</v>
       </c>
       <c r="Q2">
-        <v>0.1098940150106667</v>
+        <v>0.034799143735</v>
       </c>
       <c r="R2">
-        <v>0.989046135096</v>
+        <v>0.313192293615</v>
       </c>
       <c r="S2">
-        <v>0.0009288722314593421</v>
+        <v>0.0004809178690208855</v>
       </c>
       <c r="T2">
-        <v>0.0009290964587630877</v>
+        <v>0.0004823334993226473</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.295844</v>
+        <v>0.101371</v>
       </c>
       <c r="H3">
-        <v>0.887532</v>
+        <v>0.304113</v>
       </c>
       <c r="I3">
-        <v>0.001426310468785249</v>
+        <v>0.0004873780190420389</v>
       </c>
       <c r="J3">
-        <v>0.001426654776365869</v>
+        <v>0.0004888126654476159</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -617,28 +617,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.1989273333333333</v>
+        <v>0.004611333333333334</v>
       </c>
       <c r="N3">
-        <v>0.5967819999999999</v>
+        <v>0.013834</v>
       </c>
       <c r="O3">
-        <v>0.3487587367633652</v>
+        <v>0.0132549063945294</v>
       </c>
       <c r="P3">
-        <v>0.3487587367633652</v>
+        <v>0.01325490639452941</v>
       </c>
       <c r="Q3">
-        <v>0.05885145800266666</v>
+        <v>0.0004674554713333334</v>
       </c>
       <c r="R3">
-        <v>0.5296631220239999</v>
+        <v>0.004207099242000001</v>
       </c>
       <c r="S3">
-        <v>0.0004974382373259065</v>
+        <v>6.460150021153395E-06</v>
       </c>
       <c r="T3">
-        <v>0.0004975583176027819</v>
+        <v>6.479166124968568E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>91.51221133333333</v>
+        <v>123.540774</v>
       </c>
       <c r="H4">
-        <v>274.536634</v>
+        <v>370.6223219999999</v>
       </c>
       <c r="I4">
-        <v>0.4411947683455518</v>
+        <v>0.5939672855455723</v>
       </c>
       <c r="J4">
-        <v>0.4413012715975408</v>
+        <v>0.5957156882185389</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.3714593333333334</v>
+        <v>0.343285</v>
       </c>
       <c r="N4">
-        <v>1.114378</v>
+        <v>1.029855</v>
       </c>
       <c r="O4">
-        <v>0.6512412632366348</v>
+        <v>0.9867450936054706</v>
       </c>
       <c r="P4">
-        <v>0.6512412632366349</v>
+        <v>0.9867450936054707</v>
       </c>
       <c r="Q4">
-        <v>33.99306501373911</v>
+        <v>42.40969460258999</v>
       </c>
       <c r="R4">
-        <v>305.937585123652</v>
+        <v>381.6872514233099</v>
       </c>
       <c r="S4">
-        <v>0.2873242382707516</v>
+        <v>0.5860943047742531</v>
       </c>
       <c r="T4">
-        <v>0.2873935975831158</v>
+        <v>0.5878195325334495</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>91.51221133333333</v>
+        <v>123.540774</v>
       </c>
       <c r="H5">
-        <v>274.536634</v>
+        <v>370.6223219999999</v>
       </c>
       <c r="I5">
-        <v>0.4411947683455518</v>
+        <v>0.5939672855455723</v>
       </c>
       <c r="J5">
-        <v>0.4413012715975408</v>
+        <v>0.5957156882185389</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1989273333333333</v>
+        <v>0.004611333333333334</v>
       </c>
       <c r="N5">
-        <v>0.5967819999999999</v>
+        <v>0.013834</v>
       </c>
       <c r="O5">
-        <v>0.3487587367633652</v>
+        <v>0.0132549063945294</v>
       </c>
       <c r="P5">
-        <v>0.3487587367633652</v>
+        <v>0.01325490639452941</v>
       </c>
       <c r="Q5">
-        <v>18.20428016797644</v>
+        <v>0.569687689172</v>
       </c>
       <c r="R5">
-        <v>163.838521511788</v>
+        <v>5.127189202547999</v>
       </c>
       <c r="S5">
-        <v>0.1538705300748002</v>
+        <v>0.007872980771319279</v>
       </c>
       <c r="T5">
-        <v>0.153907674014425</v>
+        <v>0.007896155685089399</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,46 +785,46 @@
         <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.150175</v>
+        <v>1.8313505</v>
       </c>
       <c r="H6">
-        <v>0.30035</v>
+        <v>3.662701</v>
       </c>
       <c r="I6">
-        <v>0.0007240173018544393</v>
+        <v>0.008804884817764917</v>
       </c>
       <c r="J6">
-        <v>0.0004827947184794339</v>
+        <v>0.005887201923454927</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.3714593333333334</v>
+        <v>0.343285</v>
       </c>
       <c r="N6">
-        <v>1.114378</v>
+        <v>1.029855</v>
       </c>
       <c r="O6">
-        <v>0.6512412632366348</v>
+        <v>0.9867450936054706</v>
       </c>
       <c r="P6">
-        <v>0.6512412632366349</v>
+        <v>0.9867450936054707</v>
       </c>
       <c r="Q6">
-        <v>0.05578390538333334</v>
+        <v>0.6286751563925</v>
       </c>
       <c r="R6">
-        <v>0.3347034323</v>
+        <v>3.772050938355</v>
       </c>
       <c r="S6">
-        <v>0.000471509942264865</v>
+        <v>0.00868817689369083</v>
       </c>
       <c r="T6">
-        <v>0.000314415842346522</v>
+        <v>0.005809167613033839</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.150175</v>
+        <v>1.8313505</v>
       </c>
       <c r="H7">
-        <v>0.30035</v>
+        <v>3.662701</v>
       </c>
       <c r="I7">
-        <v>0.0007240173018544393</v>
+        <v>0.008804884817764917</v>
       </c>
       <c r="J7">
-        <v>0.0004827947184794339</v>
+        <v>0.005887201923454927</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -865,28 +865,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.1989273333333333</v>
+        <v>0.004611333333333334</v>
       </c>
       <c r="N7">
-        <v>0.5967819999999999</v>
+        <v>0.013834</v>
       </c>
       <c r="O7">
-        <v>0.3487587367633652</v>
+        <v>0.0132549063945294</v>
       </c>
       <c r="P7">
-        <v>0.3487587367633652</v>
+        <v>0.01325490639452941</v>
       </c>
       <c r="Q7">
-        <v>0.02987391228333333</v>
+        <v>0.008444967605666667</v>
       </c>
       <c r="R7">
-        <v>0.1792434737</v>
+        <v>0.050669805634</v>
       </c>
       <c r="S7">
-        <v>0.0002525073595895743</v>
+        <v>0.0001167079240740871</v>
       </c>
       <c r="T7">
-        <v>0.0001683788761329119</v>
+        <v>7.803431042108854E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>115.460846</v>
+        <v>82.51906066666666</v>
       </c>
       <c r="H8">
-        <v>346.382538</v>
+        <v>247.557182</v>
       </c>
       <c r="I8">
-        <v>0.5566549038838084</v>
+        <v>0.3967404516176207</v>
       </c>
       <c r="J8">
-        <v>0.5567892789076139</v>
+        <v>0.3979082971925585</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.3714593333333334</v>
+        <v>0.343285</v>
       </c>
       <c r="N8">
-        <v>1.114378</v>
+        <v>1.029855</v>
       </c>
       <c r="O8">
-        <v>0.6512412632366348</v>
+        <v>0.9867450936054706</v>
       </c>
       <c r="P8">
-        <v>0.6512412632366349</v>
+        <v>0.9867450936054707</v>
       </c>
       <c r="Q8">
-        <v>42.88900888126267</v>
+        <v>28.32755574095667</v>
       </c>
       <c r="R8">
-        <v>386.001079931364</v>
+        <v>254.94800166861</v>
       </c>
       <c r="S8">
-        <v>0.3625166427921589</v>
+        <v>0.3914816940685058</v>
       </c>
       <c r="T8">
-        <v>0.3626041533524095</v>
+        <v>0.3926340599596646</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>115.460846</v>
+        <v>82.51906066666666</v>
       </c>
       <c r="H9">
-        <v>346.382538</v>
+        <v>247.557182</v>
       </c>
       <c r="I9">
-        <v>0.5566549038838084</v>
+        <v>0.3967404516176207</v>
       </c>
       <c r="J9">
-        <v>0.5567892789076139</v>
+        <v>0.3979082971925585</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.1989273333333333</v>
+        <v>0.004611333333333334</v>
       </c>
       <c r="N9">
-        <v>0.5967819999999999</v>
+        <v>0.013834</v>
       </c>
       <c r="O9">
-        <v>0.3487587367633652</v>
+        <v>0.0132549063945294</v>
       </c>
       <c r="P9">
-        <v>0.3487587367633652</v>
+        <v>0.01325490639452941</v>
       </c>
       <c r="Q9">
-        <v>22.96831819919067</v>
+        <v>0.3805228950875555</v>
       </c>
       <c r="R9">
-        <v>206.714863792716</v>
+        <v>3.424706055788</v>
       </c>
       <c r="S9">
-        <v>0.1941382610916495</v>
+        <v>0.005258757549114884</v>
       </c>
       <c r="T9">
-        <v>0.1941851255552044</v>
+        <v>0.005274237232893952</v>
       </c>
     </row>
   </sheetData>
